--- a/HISTÓRICO.xlsx
+++ b/HISTÓRICO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cruzeiroec-my.sharepoint.com/personal/rafael_kujo_cruzeiro_com_br/Documents/appsheet/data/MERCADO-518031204-22-11-15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{FE09E6C0-5738-4D8C-85BB-888D8A2EB178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E867BBA-C640-4D25-8911-BCB20C9B7FB1}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{FE09E6C0-5738-4D8C-85BB-888D8A2EB178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48693A7-8D47-4748-BF76-7F17D7325DB1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B0EE6D1-DECE-4FE5-AC5B-9949C6C00E83}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>ID ATLETA</t>
   </si>
@@ -87,88 +89,70 @@
     <t>Entramos em contato com o River Plate e começamos negociação</t>
   </si>
   <si>
-    <t>298a2edc</t>
-  </si>
-  <si>
-    <t>365a6299</t>
-  </si>
-  <si>
-    <t>LUCAS ROMERO</t>
+    <t>e65f2cd6</t>
+  </si>
+  <si>
+    <t>4f4c53a7</t>
+  </si>
+  <si>
+    <t>Alan Franco</t>
+  </si>
+  <si>
+    <t>ZAGUEIRO</t>
+  </si>
+  <si>
+    <t>Atlanta, USA</t>
+  </si>
+  <si>
+    <t>Clube pretende um empréstimo (usd 400k) com obrigação de compra, porém agente acredita que pode negociar para uma opção de compra. Salário atual usd 350k. Salário pretendido R$ 250k/mês + comissão de R$ 150k.</t>
+  </si>
+  <si>
+    <t>be4606f9</t>
+  </si>
+  <si>
+    <t>be9b8e35</t>
+  </si>
+  <si>
+    <t>Alex Vigo</t>
+  </si>
+  <si>
+    <t>River Plate, ARG</t>
+  </si>
+  <si>
+    <t>River Plate apresentou seu novo treinador, e devem conversar com o jogador sobre aproveitamento em 2023. Tendência é de colocá-lo para venda ou novo empréstimo. Este ano foi emprestado ao Independiente por USD 200k. Salário pretendido por volta de USD 200k.</t>
+  </si>
+  <si>
+    <t>b060dea7</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>MÉDIO BOX TO BOX</t>
+  </si>
+  <si>
+    <t>Athletico, PR</t>
+  </si>
+  <si>
+    <t>Após lesão perdeu espaço no grupo, ficando descontente por não ter sido relacionado para a final da Libertadores. Tem interesse em sair. Segundo o agente, pode construir junto ao Matos um empréstimo com opção de compra. Salário atual R$ 100k + moradia (quer uma valorização). Na conversa que PA teve com Matos não tocaram no assunto. Demonstrou muito interesse em vir. Zé Ivaldo falou muito bem do clube.</t>
+  </si>
+  <si>
+    <t>419c4612</t>
+  </si>
+  <si>
+    <t>0ef78551</t>
+  </si>
+  <si>
+    <t>Lucas Romero</t>
   </si>
   <si>
     <t>MÉDIO DEFENSIVO</t>
   </si>
   <si>
-    <t>VELEZ SARSFIELD</t>
-  </si>
-  <si>
-    <t>Soubemos que o fim do contrato do jogador é em 31/12/23</t>
-  </si>
-  <si>
-    <t>e65f2cd6</t>
-  </si>
-  <si>
-    <t>4f4c53a7</t>
-  </si>
-  <si>
-    <t>Alan Franco</t>
-  </si>
-  <si>
-    <t>ZAGUEIRO</t>
-  </si>
-  <si>
-    <t>Atlanta, USA</t>
-  </si>
-  <si>
-    <t>Clube pretende um empréstimo (usd 400k) com obrigação de compra, porém agente acredita que pode negociar para uma opção de compra. Salário atual usd 350k. Salário pretendido R$ 250k/mês + comissão de R$ 150k.</t>
-  </si>
-  <si>
-    <t>be4606f9</t>
-  </si>
-  <si>
-    <t>be9b8e35</t>
-  </si>
-  <si>
-    <t>Alex Vigo</t>
-  </si>
-  <si>
-    <t>River Plate, ARG</t>
-  </si>
-  <si>
-    <t>River Plate apresentou seu novo treinador, e devem conversar com o jogador sobre aproveitamento em 2023. Tendência é de colocá-lo para venda ou novo empréstimo. Este ano foi emprestado ao Independiente por USD 200k. Salário pretendido por volta de USD 200k.</t>
-  </si>
-  <si>
-    <t>d019db8b</t>
+    <t>Independiente, ARG</t>
   </si>
   <si>
     <t>Foi procurado pelo Velez Sarsfield para fazer um grande contrato. Atual diretor do clube foi quem mais o ajudou no início da carreira e foi ouvir proposta. Porém não quer seguir na Argentina nesse momento. Ficou de segunda-feira (14/11) ir ao escritório do agente para definir tudo. Ainda não retornou. Preferência segue total sendo o Cruzeiro.</t>
-  </si>
-  <si>
-    <t>b060dea7</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>MÉDIO BOX TO BOX</t>
-  </si>
-  <si>
-    <t>Athletico, PR</t>
-  </si>
-  <si>
-    <t>Após lesão perdeu espaço no grupo, ficando descontente por não ter sido relacionado para a final da Libertadores. Tem interesse em sair. Segundo o agente, pode construir junto ao Matos um empréstimo com opção de compra. Salário atual R$ 100k + moradia (quer uma valorização). Na conversa que PA teve com Matos não tocaram no assunto. Demonstrou muito interesse em vir. Zé Ivaldo falou muito bem do clube.</t>
-  </si>
-  <si>
-    <t>419c4612</t>
-  </si>
-  <si>
-    <t>0ef78551</t>
-  </si>
-  <si>
-    <t>Lucas Romero</t>
-  </si>
-  <si>
-    <t>Independiente, ARG</t>
   </si>
   <si>
     <t>ca3b3605</t>
@@ -325,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -699,19 +683,19 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="56.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -789,443 +773,397 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>44880</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>97861351</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F9" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F10" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44880</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44880</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
       </c>
       <c r="F17" s="2">
         <v>44881</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2">
         <v>44881</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>44882</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2">
         <v>44883</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
